--- a/feature/無人機対応要件/有人区分別_対応要件.xlsx
+++ b/feature/無人機対応要件/有人区分別_対応要件.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE981E3-BD77-4128-8FA0-71887051DA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DAAAE2-27AF-44AD-BF61-61DC9E96CDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2102,8 +2102,8 @@
   </sheetPr>
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>

--- a/feature/無人機対応要件/有人区分別_対応要件.xlsx
+++ b/feature/無人機対応要件/有人区分別_対応要件.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DAAAE2-27AF-44AD-BF61-61DC9E96CDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89364210-58F7-412A-A499-D067911ECF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">概要!$A$1:$G$41</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">半有人・無人要件!$A$1:$K$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">半有人・無人要件!$A$1:$K$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">変更履歴!$A$1:$Q$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="90">
   <si>
     <t>有人区分別 対応要件</t>
     <rPh sb="0" eb="2">
@@ -1193,6 +1193,79 @@
   </si>
   <si>
     <t>◆ QR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レシートの "加盟店控え" は印字せず 電子データで情報保管すること</t>
+    <rPh sb="7" eb="10">
+      <t>カメイテン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>インジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>デンシ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ホカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"お客様控え" の印字は任意</t>
+    <rPh sb="2" eb="4">
+      <t>キャクサマ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>インジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レシートの "加盟店控え" は印字せず、係員が回収できること</t>
+    <rPh sb="7" eb="10">
+      <t>カメイテン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>インジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カカリイン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 電子データで情報保管などする。加盟店控え自体は必須である</t>
+    <rPh sb="16" eb="19">
+      <t>カメイテン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒッス</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1402,7 +1475,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1442,6 +1515,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2100,10 +2174,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
@@ -2113,7 +2187,7 @@
     <col min="4" max="4" width="31.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.21875" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="73" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="85.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="109.44140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.6640625" style="1" customWidth="1"/>
@@ -2196,596 +2270,630 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="23" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="25" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="C9" s="27"/>
-      <c r="D9" s="24" t="s">
+      <c r="C9" s="28"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="C10" s="28"/>
+      <c r="D10" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E10" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F10" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G10" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H10" s="24" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="23" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G11" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H11" s="24" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="23" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G12" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H12" s="16" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="C15" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="C14" s="22" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="C16" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D16" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22" t="s">
+      <c r="E16" s="23"/>
+      <c r="F16" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G16" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H16" s="23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="C15" s="24" t="s">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="C17" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D17" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E17" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F17" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G17" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H17" s="24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.5">
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="23" t="s">
+    <row r="18" spans="3:8" ht="34.799999999999997" x14ac:dyDescent="0.5">
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G18" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H18" s="27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="23" t="s">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G19" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="H19" s="27" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="23" t="s">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G20" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="H20" s="27" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="23" t="s">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G21" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="26"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="23" t="s">
+      <c r="H21" s="27"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G22" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="26"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C21" s="27"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="23" t="s">
+      <c r="H22" s="27"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="C23" s="28"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G23" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H23" s="24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C22" s="31"/>
-      <c r="D22" s="24" t="s">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="C24" s="32"/>
+      <c r="D24" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E24" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F24" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G24" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="23"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="H23" s="23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C24" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" s="23" t="s">
-        <v>59</v>
-      </c>
+      <c r="H24" s="24"/>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
       <c r="F25" s="24" t="s">
         <v>34</v>
       </c>
       <c r="G25" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="C26" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H25" s="24" t="s">
+      <c r="H27" s="25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-    </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="C30" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C29" s="22" t="s">
+    <row r="31" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="C31" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D31" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22" t="s">
+      <c r="E31" s="23"/>
+      <c r="F31" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G31" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="H29" s="22" t="s">
+      <c r="H31" s="23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="3:8" ht="34.799999999999997" x14ac:dyDescent="0.5">
-      <c r="C30" s="24" t="s">
+    <row r="32" spans="3:8" ht="34.799999999999997" x14ac:dyDescent="0.5">
+      <c r="C32" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D32" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E32" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F32" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="G32" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="26" t="s">
+      <c r="H32" s="27" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="G31" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" ht="52.2" x14ac:dyDescent="0.5">
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G32" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="H32" s="26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" ht="52.2" x14ac:dyDescent="0.5">
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
       <c r="E33" s="28"/>
       <c r="F33" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" ht="52.2" x14ac:dyDescent="0.5">
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="G34" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" ht="52.2" x14ac:dyDescent="0.5">
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="H33" s="29" t="s">
+      <c r="H35" s="30" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="F34" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G34" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="H34" s="23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C35" s="27"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="G35" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="H35" s="23" t="s">
-        <v>68</v>
-      </c>
-    </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C36" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="24" t="s">
-        <v>42</v>
-      </c>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
       <c r="F36" s="24" t="s">
         <v>64</v>
       </c>
       <c r="G36" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="C37" s="28"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H37" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="C38" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="H36" s="29" t="s">
+      <c r="H38" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C37" s="27"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="30"/>
-    </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C38" s="27"/>
-      <c r="D38" s="24" t="s">
+    <row r="39" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="C39" s="28"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="31"/>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="C40" s="28"/>
+      <c r="D40" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="24" t="s">
+      <c r="E40" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F38" s="24" t="s">
+      <c r="F40" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="G38" s="23" t="s">
+      <c r="G40" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="H38" s="23" t="s">
+      <c r="H40" s="24" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="24" t="s">
+    <row r="41" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="G39" s="24" t="s">
+      <c r="G41" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H39" s="24" t="s">
+      <c r="H41" s="25" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-    </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C41" s="19"/>
-    </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="C43" s="19"/>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="C44" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C43" s="22" t="s">
+    <row r="45" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="C45" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D45" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22" t="s">
+      <c r="E45" s="23"/>
+      <c r="F45" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G43" s="22" t="s">
+      <c r="G45" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="H43" s="22" t="s">
+      <c r="H45" s="23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="3:8" ht="34.799999999999997" x14ac:dyDescent="0.5">
-      <c r="C44" s="24" t="s">
+    <row r="46" spans="3:8" ht="34.799999999999997" x14ac:dyDescent="0.5">
+      <c r="C46" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="D46" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E44" s="24" t="s">
+      <c r="E46" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F44" s="23" t="s">
+      <c r="F46" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="G44" s="23" t="s">
+      <c r="G46" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="H44" s="26" t="s">
+      <c r="H46" s="27" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="23" t="s">
+    <row r="47" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="23" t="s">
+      <c r="G47" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="H45" s="26" t="s">
+      <c r="H47" s="27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="F46" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G46" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="H46" s="23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C47" s="27"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="G47" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="H47" s="23" t="s">
-        <v>68</v>
-      </c>
-    </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C48" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E48" s="24" t="s">
-        <v>42</v>
-      </c>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
       <c r="F48" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="G48" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="H48" s="23" t="s">
+      <c r="G48" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H48" s="24" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
       <c r="F49" s="24" t="s">
         <v>64</v>
       </c>
       <c r="G49" s="24" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H49" s="24" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
+      <c r="C50" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G50" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H50" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G51" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="H51" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="44" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="43" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/feature/無人機対応要件/有人区分別_対応要件.xlsx
+++ b/feature/無人機対応要件/有人区分別_対応要件.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89364210-58F7-412A-A499-D067911ECF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF30528-7861-4767-A39F-2A3C64CF6747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="5" r:id="rId1"/>
     <sheet name="概要" sheetId="3" r:id="rId2"/>
     <sheet name="半有人・無人要件" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">概要!$A$1:$G$41</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="91">
   <si>
     <t>有人区分別 対応要件</t>
     <rPh sb="0" eb="2">
@@ -1265,6 +1266,25 @@
     </rPh>
     <rPh sb="24" eb="26">
       <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>半有人は 運用担当者に指示を仰ぐようなメッセージにする必要がありそう。</t>
+    <rPh sb="0" eb="3">
+      <t>ハンユウジン</t>
+    </rPh>
+    <rPh sb="5" eb="10">
+      <t>ウンヨウタントウシャ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1475,7 +1495,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1513,7 +1533,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1535,7 +1554,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2116,45 +2135,34 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C33" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.5">
       <c r="D34" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.5">
       <c r="D35" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="20" t="s">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.5">
+      <c r="D36" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-    </row>
-    <row r="37" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="D37" s="20"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19" t="s">
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.5">
+      <c r="D37" s="19"/>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.5">
+      <c r="C38" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
+      <c r="D38" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2176,8 +2184,8 @@
   </sheetPr>
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView showGridLines="0" topLeftCell="E33" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
@@ -2270,94 +2278,94 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23" t="s">
+      <c r="E7" s="22"/>
+      <c r="F7" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="22" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="24" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="C9" s="28"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26" t="s">
+      <c r="C9" s="27"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="25" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="C10" s="28"/>
-      <c r="D10" s="25" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="23" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="24" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="23" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="24" t="s">
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="23" t="s">
         <v>78</v>
       </c>
       <c r="G12" s="16" t="s">
@@ -2371,19 +2379,19 @@
       <c r="C13" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="H13" s="25" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2393,194 +2401,194 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23" t="s">
+      <c r="E16" s="22"/>
+      <c r="F16" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="22" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="H17" s="23" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="34.799999999999997" x14ac:dyDescent="0.5">
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="24" t="s">
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="27" t="s">
+      <c r="H18" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="24" t="s">
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G19" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="27" t="s">
+      <c r="H19" s="26" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="24" t="s">
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="27" t="s">
+      <c r="H20" s="26" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="24" t="s">
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="27"/>
+      <c r="H21" s="26"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="24" t="s">
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="27"/>
+      <c r="H22" s="26"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C23" s="28"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="24" t="s">
+      <c r="C23" s="27"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="24" t="s">
+      <c r="H23" s="23" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C24" s="32"/>
-      <c r="D24" s="25" t="s">
+      <c r="C24" s="31"/>
+      <c r="D24" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="H24" s="24"/>
+      <c r="H24" s="23"/>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="24" t="s">
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="24" t="s">
+      <c r="G25" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H25" s="24" t="s">
+      <c r="H25" s="23" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F26" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="G26" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="H26" s="24" t="s">
+      <c r="H26" s="23" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="25" t="s">
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H27" s="25" t="s">
+      <c r="H27" s="24" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.5">
       <c r="C30" s="1" t="s">
@@ -2588,182 +2596,179 @@
       </c>
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23" t="s">
+      <c r="E31" s="22"/>
+      <c r="F31" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G31" s="23" t="s">
+      <c r="G31" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H31" s="23" t="s">
+      <c r="H31" s="22" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="34.799999999999997" x14ac:dyDescent="0.5">
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="24" t="s">
+      <c r="F32" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H32" s="27" t="s">
+      <c r="H32" s="26" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="24" t="s">
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="G33" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H33" s="27" t="s">
+      <c r="H33" s="26" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="34" spans="3:8" ht="52.2" x14ac:dyDescent="0.5">
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="24" t="s">
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="H34" s="27" t="s">
+      <c r="H34" s="26" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="35" spans="3:8" ht="52.2" x14ac:dyDescent="0.5">
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="25" t="s">
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="G35" s="25" t="s">
+      <c r="G35" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="H35" s="30" t="s">
+      <c r="H35" s="29" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="F36" s="24" t="s">
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="F36" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="G36" s="24" t="s">
+      <c r="G36" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="H36" s="24" t="s">
+      <c r="H36" s="23" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C37" s="28"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="24" t="s">
+      <c r="C37" s="27"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="G37" s="24" t="s">
+      <c r="G37" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="H37" s="24" t="s">
+      <c r="H37" s="23" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="E38" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F38" s="25" t="s">
+      <c r="F38" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="G38" s="25" t="s">
+      <c r="G38" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="H38" s="30" t="s">
+      <c r="H38" s="29" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C39" s="28"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="31"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="30"/>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C40" s="28"/>
-      <c r="D40" s="25" t="s">
+      <c r="C40" s="27"/>
+      <c r="D40" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E40" s="25" t="s">
+      <c r="E40" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F40" s="25" t="s">
+      <c r="F40" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="G40" s="24" t="s">
+      <c r="G40" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="H40" s="24" t="s">
+      <c r="H40" s="23" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="25" t="s">
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="G41" s="25" t="s">
+      <c r="G41" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H41" s="25" t="s">
+      <c r="H41" s="24" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-    </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C43" s="19"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.5">
       <c r="C44" s="1" t="s">
@@ -2771,129 +2776,150 @@
       </c>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C45" s="23" t="s">
+      <c r="C45" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23" t="s">
+      <c r="E45" s="22"/>
+      <c r="F45" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G45" s="23" t="s">
+      <c r="G45" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H45" s="23" t="s">
+      <c r="H45" s="22" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="46" spans="3:8" ht="34.799999999999997" x14ac:dyDescent="0.5">
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E46" s="25" t="s">
+      <c r="E46" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F46" s="24" t="s">
+      <c r="F46" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="G46" s="24" t="s">
+      <c r="G46" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H46" s="27" t="s">
+      <c r="H46" s="26" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="24" t="s">
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="G47" s="24" t="s">
+      <c r="G47" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H47" s="27" t="s">
+      <c r="H47" s="26" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="F48" s="24" t="s">
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="F48" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="G48" s="24" t="s">
+      <c r="G48" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="H48" s="24" t="s">
+      <c r="H48" s="23" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C49" s="28"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="24" t="s">
+      <c r="C49" s="27"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="G49" s="24" t="s">
+      <c r="G49" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="H49" s="24" t="s">
+      <c r="H49" s="23" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="25" t="s">
+      <c r="D50" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E50" s="25" t="s">
+      <c r="E50" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F50" s="25" t="s">
+      <c r="F50" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="G50" s="24" t="s">
+      <c r="G50" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="H50" s="24" t="s">
+      <c r="H50" s="23" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="25" t="s">
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="G51" s="25" t="s">
+      <c r="G51" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H51" s="25" t="s">
+      <c r="H51" s="24" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="43" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2CF332-D07A-455D-9B5C-306AD30E13AA}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>